--- a/test-data/cts_advanced_search_drug_data.xlsx
+++ b/test-data/cts_advanced_search_drug_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC3E2A-6F1D-43B0-BF0F-39D18DB82052}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9B59D-CF5A-9D47-B261-39302ED23712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="5640" windowWidth="29020" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="advanced_search" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>path</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Abiraterone Acetate</t>
-  </si>
-  <si>
     <t>Acupuncture Therapy</t>
   </si>
   <si>
-    <t>Tai Chi</t>
-  </si>
-  <si>
     <t>ata</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>frm</t>
   </si>
   <si>
-    <t>Ciprofloxacin</t>
-  </si>
-  <si>
     <t>Please enter 3 or more characters</t>
   </si>
   <si>
@@ -77,34 +68,19 @@
     <t>ExpectedTreatmentText</t>
   </si>
   <si>
-    <t>Abiraterone Acetate,Ciprofloxacin</t>
-  </si>
-  <si>
-    <t>Acupuncture Therapy,Tai Chi</t>
-  </si>
-  <si>
     <t>ParamDrug</t>
   </si>
   <si>
     <t>ParamTreatment</t>
   </si>
   <si>
-    <t>i=C15176&amp;i=C93099&amp;loc=0&amp;rl=2</t>
-  </si>
-  <si>
     <t>i=C15176&amp;loc=0&amp;rl=2</t>
   </si>
   <si>
-    <t>i=C93099&amp;loc=0&amp;rl=2</t>
-  </si>
-  <si>
-    <t>d=C68845&amp;d=C375&amp;loc=0&amp;rl=2</t>
-  </si>
-  <si>
-    <t>d=C68845&amp;loc=0&amp;rl=2</t>
-  </si>
-  <si>
-    <t>d=C375&amp;loc=0&amp;rl=2</t>
+    <t>d=C2039&amp;loc=0&amp;rl=2</t>
+  </si>
+  <si>
+    <t>Bevacizumab</t>
   </si>
 </sst>
 </file>
@@ -455,25 +431,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -481,87 +457,41 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -575,19 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEC67E2-C5B2-4037-802A-6E2928E115CB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -598,27 +528,27 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
